--- a/data_20240308_combined_v2.xlsx
+++ b/data_20240308_combined_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaeldias/Desktop/Projects/HEAD/Weather Hamilton Main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD558F34-151B-054D-8C13-2E13DF502919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521C4748-B919-EC43-B2B9-269341BB3E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4D587D4D-3294-404F-BE4D-373AFCBD9F7A}"/>
+    <workbookView xWindow="19820" yWindow="500" windowWidth="18580" windowHeight="19640" activeTab="2" xr2:uid="{4D587D4D-3294-404F-BE4D-373AFCBD9F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1335">
   <si>
     <t>Asset Name</t>
   </si>
@@ -4036,13 +4036,16 @@
     <t>General</t>
   </si>
   <si>
-    <t>Children, Adults, Seniors</t>
-  </si>
-  <si>
     <t>Seniors</t>
   </si>
   <si>
     <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Children</t>
   </si>
 </sst>
 </file>
@@ -4164,12 +4167,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -4177,6 +4174,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4303,23 +4306,23 @@
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4FD45968-6E3A-45AD-B4D2-FA5BDB4E463A}" name="Asset Address"/>
-    <tableColumn id="18" xr3:uid="{CE170D38-8A84-7C47-82A5-3E18F6A87803}" name="Indoor/Outdoor" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{CE170D38-8A84-7C47-82A5-3E18F6A87803}" name="Indoor/Outdoor" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{CFC2B8DA-128F-F44D-8951-A38A5A0F025C}" name="Likely End User Age Category" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{CFC2B8DA-128F-F44D-8951-A38A5A0F025C}" name="Likely End User Age Category" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{96AD7D77-2CAE-4C57-B5BD-AACB1BC1695F}" name="Asset Size"/>
     <tableColumn id="5" xr3:uid="{7E8D8769-3C88-49FF-BDA6-9A3FEB1E3EDC}" name="Asset Measure Unit"/>
-    <tableColumn id="6" xr3:uid="{626726F3-9C5C-4869-B529-6F38D5397CB6}" name="Asset Date Built" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3123E2E5-EF01-4358-9727-FE07A5EC74F0}" name="2023 FCI Rating" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{626726F3-9C5C-4869-B529-6F38D5397CB6}" name="Asset Date Built" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3123E2E5-EF01-4358-9727-FE07A5EC74F0}" name="2023 FCI Rating" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{603CEA58-4011-49B0-8DEE-981DAE8AB848}" name="Full_Address"/>
     <tableColumn id="9" xr3:uid="{DE7A82F5-4F84-4C71-B611-1ECE2F201E05}" name="Latitude"/>
     <tableColumn id="10" xr3:uid="{6F2D5230-D692-4C39-A46C-27E7D8B78FD2}" name="Longitude"/>
     <tableColumn id="13" xr3:uid="{E53D94F2-5A6C-4396-8CD5-8CE65D4D7D53}" name="Assessment Date"/>
     <tableColumn id="14" xr3:uid="{613B2D45-8961-424D-83BA-2D93548F7F66}" name="Current Replacement Value"/>
     <tableColumn id="15" xr3:uid="{5D00925C-072B-49D5-809A-FE73386C417D}" name="Current Needs Value"/>
-    <tableColumn id="16" xr3:uid="{DE962170-87BE-4C92-A6A9-37CA0D1EAB8C}" name="Current FCI" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{DE962170-87BE-4C92-A6A9-37CA0D1EAB8C}" name="Current FCI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4624,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236BAFA-F1E7-43BD-90AD-183EC5CAF6D7}">
   <dimension ref="A1:R501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H3" s="1">
         <v>1954</v>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H4">
         <v>72</v>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H5" s="1">
         <v>19067</v>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H6" s="1">
         <v>1112</v>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H7">
         <v>800</v>
@@ -5085,7 +5088,7 @@
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H8" s="1">
         <v>10526</v>
@@ -5145,7 +5148,7 @@
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H9" s="1">
         <v>1099</v>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H10" s="1">
         <v>1099</v>
@@ -5565,7 +5568,7 @@
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H16" s="1">
         <v>17678</v>
@@ -5685,7 +5688,7 @@
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H18">
         <v>688</v>
@@ -5805,7 +5808,7 @@
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H20" s="1">
         <v>7612</v>
@@ -5865,7 +5868,7 @@
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H21" s="1">
         <v>3350</v>
@@ -5925,7 +5928,7 @@
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H22">
         <v>693</v>
@@ -6105,7 +6108,7 @@
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H25" s="1">
         <v>2600</v>
@@ -6165,7 +6168,7 @@
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H26" s="1">
         <v>3813</v>
@@ -6282,7 +6285,7 @@
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H28" s="1">
         <v>1827</v>
@@ -6342,7 +6345,7 @@
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H29" s="1">
         <v>5750</v>
@@ -6402,7 +6405,7 @@
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H30">
         <v>290</v>
@@ -6519,7 +6522,7 @@
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H32" s="1">
         <v>30436</v>
@@ -6939,7 +6942,7 @@
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H39" s="1">
         <v>54895</v>
@@ -6999,7 +7002,7 @@
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H40">
         <v>688</v>
@@ -7059,7 +7062,7 @@
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H41" s="1">
         <v>32298</v>
@@ -7119,7 +7122,7 @@
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H42" s="1">
         <v>3800</v>
@@ -7233,7 +7236,7 @@
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H44" s="1">
         <v>1332</v>
@@ -7293,7 +7296,7 @@
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H45">
         <v>266</v>
@@ -7353,7 +7356,7 @@
       </c>
       <c r="G46" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H46">
         <v>385</v>
@@ -7413,7 +7416,7 @@
       </c>
       <c r="G47" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H47">
         <v>300</v>
@@ -7473,7 +7476,7 @@
       </c>
       <c r="G48" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -7533,7 +7536,7 @@
       </c>
       <c r="G49" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H49" s="1">
         <v>3995</v>
@@ -7653,7 +7656,7 @@
       </c>
       <c r="G51" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H51" s="1">
         <v>31183</v>
@@ -7713,7 +7716,7 @@
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H52" s="1">
         <v>2456</v>
@@ -7773,7 +7776,7 @@
       </c>
       <c r="G53" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H53" s="1">
         <v>1405</v>
@@ -7833,7 +7836,7 @@
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H54" s="1">
         <v>6000</v>
@@ -7893,7 +7896,7 @@
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H55" s="1">
         <v>7596</v>
@@ -7953,7 +7956,7 @@
       </c>
       <c r="G56" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H56">
         <v>250</v>
@@ -8193,7 +8196,7 @@
       </c>
       <c r="G60" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H60">
         <v>700</v>
@@ -8493,7 +8496,7 @@
       </c>
       <c r="G65" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H65" s="1">
         <v>1903</v>
@@ -8613,7 +8616,7 @@
       </c>
       <c r="G67" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -8673,7 +8676,7 @@
       </c>
       <c r="G68" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H68" s="1">
         <v>1959</v>
@@ -8733,7 +8736,7 @@
       </c>
       <c r="G69" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H69">
         <v>280</v>
@@ -8793,7 +8796,7 @@
       </c>
       <c r="G70" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H70" s="1">
         <v>1367</v>
@@ -8853,7 +8856,7 @@
       </c>
       <c r="G71" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H71" s="1">
         <v>33062</v>
@@ -8913,7 +8916,7 @@
       </c>
       <c r="G72" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H72">
         <v>481</v>
@@ -8973,7 +8976,7 @@
       </c>
       <c r="G73" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H73" s="1">
         <v>2189</v>
@@ -9033,7 +9036,7 @@
       </c>
       <c r="G74" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H74" s="1">
         <v>4513</v>
@@ -9153,7 +9156,7 @@
       </c>
       <c r="G76" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H76">
         <v>333</v>
@@ -9213,7 +9216,7 @@
       </c>
       <c r="G77" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H77" s="1">
         <v>1475</v>
@@ -9273,7 +9276,7 @@
       </c>
       <c r="G78" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H78">
         <v>528</v>
@@ -9333,7 +9336,7 @@
       </c>
       <c r="G79" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H79" s="1">
         <v>1313</v>
@@ -9393,7 +9396,7 @@
       </c>
       <c r="G80" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H80" s="1">
         <v>22559</v>
@@ -9453,7 +9456,7 @@
       </c>
       <c r="G81" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H81">
         <v>695</v>
@@ -9513,7 +9516,7 @@
       </c>
       <c r="G82" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H82" s="1">
         <v>185978</v>
@@ -9633,7 +9636,7 @@
       </c>
       <c r="G84" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H84" s="1">
         <v>12420</v>
@@ -9693,7 +9696,7 @@
       </c>
       <c r="G85" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H85">
         <v>198</v>
@@ -9753,7 +9756,7 @@
       </c>
       <c r="G86" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H86" s="1">
         <v>2974</v>
@@ -9813,7 +9816,7 @@
       </c>
       <c r="G87" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H87" s="1">
         <v>1217</v>
@@ -9873,7 +9876,7 @@
       </c>
       <c r="G88" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H88">
         <v>130</v>
@@ -9933,7 +9936,7 @@
       </c>
       <c r="G89" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H89">
         <v>771</v>
@@ -9993,7 +9996,7 @@
       </c>
       <c r="G90" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H90">
         <v>195</v>
@@ -10053,7 +10056,7 @@
       </c>
       <c r="G91" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H91">
         <v>435</v>
@@ -10113,7 +10116,7 @@
       </c>
       <c r="G92" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H92">
         <v>548</v>
@@ -10173,7 +10176,7 @@
       </c>
       <c r="G93" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H93">
         <v>724</v>
@@ -10233,7 +10236,7 @@
       </c>
       <c r="G94" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H94">
         <v>396</v>
@@ -10293,7 +10296,7 @@
       </c>
       <c r="G95" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H95" s="1">
         <v>7834</v>
@@ -10353,7 +10356,7 @@
       </c>
       <c r="G96" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H96" s="1">
         <v>89421</v>
@@ -10644,7 +10647,7 @@
       </c>
       <c r="G101" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H101" s="1">
         <v>4568</v>
@@ -10884,7 +10887,7 @@
       </c>
       <c r="G105" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H105">
         <v>109</v>
@@ -10944,7 +10947,7 @@
       </c>
       <c r="G106" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H106">
         <v>109</v>
@@ -11004,7 +11007,7 @@
       </c>
       <c r="G107" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H107">
         <v>109</v>
@@ -11064,7 +11067,7 @@
       </c>
       <c r="G108" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H108">
         <v>109</v>
@@ -11124,7 +11127,7 @@
       </c>
       <c r="G109" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H109">
         <v>109</v>
@@ -11184,7 +11187,7 @@
       </c>
       <c r="G110" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H110">
         <v>109</v>
@@ -11244,7 +11247,7 @@
       </c>
       <c r="G111" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H111">
         <v>109</v>
@@ -11304,7 +11307,7 @@
       </c>
       <c r="G112" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H112">
         <v>109</v>
@@ -11364,7 +11367,7 @@
       </c>
       <c r="G113" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H113">
         <v>109</v>
@@ -11424,7 +11427,7 @@
       </c>
       <c r="G114" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H114">
         <v>109</v>
@@ -11484,7 +11487,7 @@
       </c>
       <c r="G115" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H115">
         <v>109</v>
@@ -11544,7 +11547,7 @@
       </c>
       <c r="G116" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H116">
         <v>109</v>
@@ -11604,7 +11607,7 @@
       </c>
       <c r="G117" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H117">
         <v>109</v>
@@ -11664,7 +11667,7 @@
       </c>
       <c r="G118" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H118">
         <v>109</v>
@@ -11724,7 +11727,7 @@
       </c>
       <c r="G119" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H119">
         <v>857</v>
@@ -11904,7 +11907,7 @@
       </c>
       <c r="G122" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H122" s="1">
         <v>8316</v>
@@ -12024,7 +12027,7 @@
       </c>
       <c r="G124" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H124" s="1">
         <v>7788</v>
@@ -12084,7 +12087,7 @@
       </c>
       <c r="G125" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H125" s="1">
         <v>1304</v>
@@ -12144,7 +12147,7 @@
       </c>
       <c r="G126" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H126" s="1">
         <v>1546</v>
@@ -12204,7 +12207,7 @@
       </c>
       <c r="G127" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H127" s="1">
         <v>27098</v>
@@ -12264,7 +12267,7 @@
       </c>
       <c r="G128" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H128" s="1">
         <v>27087</v>
@@ -12324,7 +12327,7 @@
       </c>
       <c r="G129" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H129" s="1">
         <v>1485</v>
@@ -12384,7 +12387,7 @@
       </c>
       <c r="G130" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H130" s="1">
         <v>11601</v>
@@ -12444,7 +12447,7 @@
       </c>
       <c r="G131" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H131" s="1">
         <v>76286</v>
@@ -12564,7 +12567,7 @@
       </c>
       <c r="G133" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H133" s="1">
         <v>16401</v>
@@ -12624,7 +12627,7 @@
       </c>
       <c r="G134" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H134" s="1">
         <v>10364</v>
@@ -12684,7 +12687,7 @@
       </c>
       <c r="G135" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H135" s="1">
         <v>1279</v>
@@ -12744,7 +12747,7 @@
       </c>
       <c r="G136" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H136" s="1">
         <v>4305</v>
@@ -12804,7 +12807,7 @@
       </c>
       <c r="G137" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H137" s="1">
         <v>1628</v>
@@ -12924,7 +12927,7 @@
       </c>
       <c r="G139" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H139" s="1">
         <v>1097</v>
@@ -12984,7 +12987,7 @@
       </c>
       <c r="G140" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H140" s="1">
         <v>2058</v>
@@ -13044,7 +13047,7 @@
       </c>
       <c r="G141" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H141" s="1">
         <v>1225</v>
@@ -13104,7 +13107,7 @@
       </c>
       <c r="G142" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H142">
         <v>105</v>
@@ -13224,7 +13227,7 @@
       </c>
       <c r="G144" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H144" s="1">
         <v>2425</v>
@@ -13284,7 +13287,7 @@
       </c>
       <c r="G145" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H145">
         <v>206</v>
@@ -13344,7 +13347,7 @@
       </c>
       <c r="G146" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H146" s="1">
         <v>13181</v>
@@ -13464,7 +13467,7 @@
       </c>
       <c r="G148" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H148" s="1">
         <v>5000</v>
@@ -13995,7 +13998,7 @@
       </c>
       <c r="G157" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="I157" t="s">
         <v>13</v>
@@ -14043,7 +14046,7 @@
       </c>
       <c r="G158" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="I158" t="s">
         <v>13</v>
@@ -14091,7 +14094,7 @@
       </c>
       <c r="G159" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H159">
         <v>580</v>
@@ -14151,7 +14154,7 @@
       </c>
       <c r="G160" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H160" s="1">
         <v>1053</v>
@@ -14211,7 +14214,7 @@
       </c>
       <c r="G161" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H161" s="1">
         <v>2413</v>
@@ -14271,7 +14274,7 @@
       </c>
       <c r="G162" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H162">
         <v>687</v>
@@ -14328,7 +14331,7 @@
       </c>
       <c r="G163" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H163" s="1">
         <v>26323</v>
@@ -14388,7 +14391,7 @@
       </c>
       <c r="G164" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H164" s="1">
         <v>2777</v>
@@ -14448,7 +14451,7 @@
       </c>
       <c r="G165" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H165">
         <v>809</v>
@@ -14508,7 +14511,7 @@
       </c>
       <c r="G166" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H166">
         <v>688</v>
@@ -14628,7 +14631,7 @@
       </c>
       <c r="G168" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H168">
         <v>373</v>
@@ -14748,7 +14751,7 @@
       </c>
       <c r="G170" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H170">
         <v>400</v>
@@ -14808,7 +14811,7 @@
       </c>
       <c r="G171" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H171">
         <v>100</v>
@@ -14868,7 +14871,7 @@
       </c>
       <c r="G172" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H172">
         <v>380</v>
@@ -14988,7 +14991,7 @@
       </c>
       <c r="G174" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H174" s="1">
         <v>4205</v>
@@ -15048,7 +15051,7 @@
       </c>
       <c r="G175" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H175">
         <v>592</v>
@@ -17028,7 +17031,7 @@
       </c>
       <c r="G208" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H208" s="1">
         <v>449376</v>
@@ -17088,7 +17091,7 @@
       </c>
       <c r="G209" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H209" s="1">
         <v>93779</v>
@@ -17148,7 +17151,7 @@
       </c>
       <c r="G210" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H210" s="1">
         <v>31425</v>
@@ -17568,7 +17571,7 @@
       </c>
       <c r="G217" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H217" s="1">
         <v>3240</v>
@@ -17628,7 +17631,7 @@
       </c>
       <c r="G218" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H218" s="1">
         <v>1220</v>
@@ -17808,7 +17811,7 @@
       </c>
       <c r="G221" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H221" s="1">
         <v>1945</v>
@@ -17868,7 +17871,7 @@
       </c>
       <c r="G222" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H222" s="1">
         <v>5047</v>
@@ -18048,7 +18051,7 @@
       </c>
       <c r="G225" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H225">
         <v>602</v>
@@ -18108,7 +18111,7 @@
       </c>
       <c r="G226" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H226">
         <v>980</v>
@@ -18168,7 +18171,7 @@
       </c>
       <c r="G227" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H227" s="1">
         <v>1800</v>
@@ -18228,7 +18231,7 @@
       </c>
       <c r="G228" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H228">
         <v>867</v>
@@ -18588,7 +18591,7 @@
       </c>
       <c r="G234" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H234">
         <v>480</v>
@@ -18708,7 +18711,7 @@
       </c>
       <c r="G236" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H236">
         <v>250</v>
@@ -18768,7 +18771,7 @@
       </c>
       <c r="G237" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H237">
         <v>700</v>
@@ -18948,7 +18951,7 @@
       </c>
       <c r="G240" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H240" s="1">
         <v>1234</v>
@@ -19008,7 +19011,7 @@
       </c>
       <c r="G241" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H241" s="1">
         <v>41163</v>
@@ -19128,7 +19131,7 @@
       </c>
       <c r="G243" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H243">
         <v>450</v>
@@ -19188,7 +19191,7 @@
       </c>
       <c r="G244" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H244">
         <v>505</v>
@@ -19308,7 +19311,7 @@
       </c>
       <c r="G246" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H246">
         <v>683</v>
@@ -19428,7 +19431,7 @@
       </c>
       <c r="G248" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H248" s="1">
         <v>1377</v>
@@ -19488,7 +19491,7 @@
       </c>
       <c r="G249" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H249" s="1">
         <v>15414</v>
@@ -19548,7 +19551,7 @@
       </c>
       <c r="G250" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H250" s="1">
         <v>4508</v>
@@ -19608,7 +19611,7 @@
       </c>
       <c r="G251" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H251" s="1">
         <v>3400</v>
@@ -19668,7 +19671,7 @@
       </c>
       <c r="G252" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H252">
         <v>632</v>
@@ -19728,7 +19731,7 @@
       </c>
       <c r="G253" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H253" s="1">
         <v>10654</v>
@@ -19788,7 +19791,7 @@
       </c>
       <c r="G254" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H254" s="1">
         <v>5356</v>
@@ -19848,7 +19851,7 @@
       </c>
       <c r="G255" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H255" s="1">
         <v>2206</v>
@@ -20028,7 +20031,7 @@
       </c>
       <c r="G258" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H258" s="1">
         <v>188903</v>
@@ -20502,7 +20505,7 @@
       </c>
       <c r="G266" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H266" s="1">
         <v>7064</v>
@@ -20562,7 +20565,7 @@
       </c>
       <c r="G267" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H267" s="1">
         <v>92641</v>
@@ -20682,7 +20685,7 @@
       </c>
       <c r="G269" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H269">
         <v>160</v>
@@ -20799,7 +20802,7 @@
       </c>
       <c r="G271" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H271">
         <v>160</v>
@@ -20958,7 +20961,7 @@
       </c>
       <c r="G274" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H274" s="1">
         <v>5213</v>
@@ -21078,7 +21081,7 @@
       </c>
       <c r="G276" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H276" s="1">
         <v>16685</v>
@@ -21138,7 +21141,7 @@
       </c>
       <c r="G277" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H277">
         <v>380</v>
@@ -21198,7 +21201,7 @@
       </c>
       <c r="G278" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H278" s="1">
         <v>29681</v>
@@ -21258,7 +21261,7 @@
       </c>
       <c r="G279" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H279" s="1">
         <v>2318</v>
@@ -21318,7 +21321,7 @@
       </c>
       <c r="G280" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H280" s="1">
         <v>33995</v>
@@ -21378,7 +21381,7 @@
       </c>
       <c r="G281" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H281" s="1">
         <v>2000</v>
@@ -21438,7 +21441,7 @@
       </c>
       <c r="G282" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H282" s="1">
         <v>76899</v>
@@ -21498,7 +21501,7 @@
       </c>
       <c r="G283" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H283">
         <v>678</v>
@@ -21558,7 +21561,7 @@
       </c>
       <c r="G284" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="I284" t="s">
         <v>13</v>
@@ -21612,7 +21615,7 @@
       </c>
       <c r="G285" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H285" s="1">
         <v>23129</v>
@@ -21732,7 +21735,7 @@
       </c>
       <c r="G287" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H287" s="1">
         <v>1130</v>
@@ -21849,7 +21852,7 @@
       </c>
       <c r="G289" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H289" s="1">
         <v>1795</v>
@@ -21969,7 +21972,7 @@
       </c>
       <c r="G291" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H291" s="1">
         <v>27847</v>
@@ -22029,7 +22032,7 @@
       </c>
       <c r="G292" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H292" s="1">
         <v>7959</v>
@@ -22149,7 +22152,7 @@
       </c>
       <c r="G294" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H294" s="1">
         <v>13454</v>
@@ -22209,7 +22212,7 @@
       </c>
       <c r="G295" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H295" s="1">
         <v>6474</v>
@@ -22269,7 +22272,7 @@
       </c>
       <c r="G296" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H296">
         <v>199</v>
@@ -22329,7 +22332,7 @@
       </c>
       <c r="G297" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H297" s="1">
         <v>2084</v>
@@ -22389,7 +22392,7 @@
       </c>
       <c r="G298" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H298" s="1">
         <v>1211</v>
@@ -22449,7 +22452,7 @@
       </c>
       <c r="G299" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H299">
         <v>160</v>
@@ -22509,7 +22512,7 @@
       </c>
       <c r="G300" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H300">
         <v>180</v>
@@ -22569,7 +22572,7 @@
       </c>
       <c r="G301" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H301">
         <v>747</v>
@@ -22629,7 +22632,7 @@
       </c>
       <c r="G302" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H302" s="1">
         <v>18000</v>
@@ -22689,7 +22692,7 @@
       </c>
       <c r="G303" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H303" s="1">
         <v>6979</v>
@@ -22809,7 +22812,7 @@
       </c>
       <c r="G305" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H305">
         <v>765</v>
@@ -22869,7 +22872,7 @@
       </c>
       <c r="G306" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H306">
         <v>690</v>
@@ -23049,7 +23052,7 @@
       </c>
       <c r="G309" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H309" s="1">
         <v>1485</v>
@@ -23169,7 +23172,7 @@
       </c>
       <c r="G311" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H311">
         <v>337</v>
@@ -23229,7 +23232,7 @@
       </c>
       <c r="G312" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H312" s="1">
         <v>8400</v>
@@ -23289,7 +23292,7 @@
       </c>
       <c r="G313" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H313" s="1">
         <v>3815</v>
@@ -23349,7 +23352,7 @@
       </c>
       <c r="G314" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H314" s="1">
         <v>2280</v>
@@ -23409,7 +23412,7 @@
       </c>
       <c r="G315" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H315">
         <v>864</v>
@@ -23469,7 +23472,7 @@
       </c>
       <c r="G316" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H316" s="1">
         <v>1167</v>
@@ -23529,7 +23532,7 @@
       </c>
       <c r="G317" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H317" s="1">
         <v>236186</v>
@@ -23649,7 +23652,7 @@
       </c>
       <c r="G319" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H319" s="1">
         <v>4075</v>
@@ -23709,7 +23712,7 @@
       </c>
       <c r="G320" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H320" s="1">
         <v>6370</v>
@@ -23877,7 +23880,7 @@
       </c>
       <c r="G323" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H323">
         <v>930</v>
@@ -23937,7 +23940,7 @@
       </c>
       <c r="G324" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H324" s="1">
         <v>1832</v>
@@ -24237,7 +24240,7 @@
       </c>
       <c r="G329" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H329">
         <v>225</v>
@@ -24297,7 +24300,7 @@
       </c>
       <c r="G330" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H330">
         <v>560</v>
@@ -24357,7 +24360,7 @@
       </c>
       <c r="G331" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H331" s="1">
         <v>4811</v>
@@ -24417,7 +24420,7 @@
       </c>
       <c r="G332" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H332" s="1">
         <v>1680</v>
@@ -24477,7 +24480,7 @@
       </c>
       <c r="G333" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H333">
         <v>280</v>
@@ -24537,7 +24540,7 @@
       </c>
       <c r="G334" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H334">
         <v>436</v>
@@ -24597,7 +24600,7 @@
       </c>
       <c r="G335" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H335" s="1">
         <v>136000</v>
@@ -24657,7 +24660,7 @@
       </c>
       <c r="G336" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H336">
         <v>212</v>
@@ -24717,7 +24720,7 @@
       </c>
       <c r="G337" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H337">
         <v>212</v>
@@ -24777,7 +24780,7 @@
       </c>
       <c r="G338" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H338" s="1">
         <v>5095</v>
@@ -25137,7 +25140,7 @@
       </c>
       <c r="G344" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H344" s="1">
         <v>2784</v>
@@ -25257,7 +25260,7 @@
       </c>
       <c r="G346" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H346" s="1">
         <v>6545</v>
@@ -25317,7 +25320,7 @@
       </c>
       <c r="G347" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H347">
         <v>336</v>
@@ -25377,7 +25380,7 @@
       </c>
       <c r="G348" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H348">
         <v>381</v>
@@ -25437,7 +25440,7 @@
       </c>
       <c r="G349" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H349" s="1">
         <v>2788</v>
@@ -25497,7 +25500,7 @@
       </c>
       <c r="G350" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H350" s="1">
         <v>92570</v>
@@ -25557,7 +25560,7 @@
       </c>
       <c r="G351" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H351">
         <v>355</v>
@@ -25617,7 +25620,7 @@
       </c>
       <c r="G352" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H352" s="1">
         <v>6035</v>
@@ -25677,7 +25680,7 @@
       </c>
       <c r="G353" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H353" s="1">
         <v>6015</v>
@@ -25737,7 +25740,7 @@
       </c>
       <c r="G354" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="I354" t="s">
         <v>13</v>
@@ -25968,7 +25971,7 @@
       </c>
       <c r="G358" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H358">
         <v>380</v>
@@ -26028,7 +26031,7 @@
       </c>
       <c r="G359" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="I359" t="s">
         <v>13</v>
@@ -26076,7 +26079,7 @@
       </c>
       <c r="G360" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H360" s="1">
         <v>2152</v>
@@ -26136,7 +26139,7 @@
       </c>
       <c r="G361" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H361" s="1">
         <v>1432</v>
@@ -26196,7 +26199,7 @@
       </c>
       <c r="G362" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H362" s="1">
         <v>1355</v>
@@ -26256,7 +26259,7 @@
       </c>
       <c r="G363" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H363">
         <v>557</v>
@@ -26376,7 +26379,7 @@
       </c>
       <c r="G365" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H365" s="1">
         <v>1160</v>
@@ -26436,7 +26439,7 @@
       </c>
       <c r="G366" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H366" s="1">
         <v>35074</v>
@@ -26496,7 +26499,7 @@
       </c>
       <c r="G367" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H367" s="1">
         <v>27086</v>
@@ -26556,7 +26559,7 @@
       </c>
       <c r="G368" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H368" s="1">
         <v>3819</v>
@@ -26616,7 +26619,7 @@
       </c>
       <c r="G369" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H369" s="1">
         <v>4700</v>
@@ -26736,7 +26739,7 @@
       </c>
       <c r="G371" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H371" s="1">
         <v>34018</v>
@@ -26856,7 +26859,7 @@
       </c>
       <c r="G373" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H373" s="1">
         <v>1975</v>
@@ -26916,7 +26919,7 @@
       </c>
       <c r="G374" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H374">
         <v>795</v>
@@ -26976,7 +26979,7 @@
       </c>
       <c r="G375" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H375">
         <v>380</v>
@@ -27036,7 +27039,7 @@
       </c>
       <c r="G376" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H376" s="1">
         <v>4305</v>
@@ -27276,7 +27279,7 @@
       </c>
       <c r="G380" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H380">
         <v>354</v>
@@ -27456,7 +27459,7 @@
       </c>
       <c r="G383" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H383" s="1">
         <v>38074</v>
@@ -27516,7 +27519,7 @@
       </c>
       <c r="G384" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H384" s="1">
         <v>3757</v>
@@ -27576,7 +27579,7 @@
       </c>
       <c r="G385" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H385">
         <v>596</v>
@@ -27636,7 +27639,7 @@
       </c>
       <c r="G386" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H386" s="1">
         <v>5489</v>
@@ -27876,7 +27879,7 @@
       </c>
       <c r="G390" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H390" s="1">
         <v>23065</v>
@@ -27936,7 +27939,7 @@
       </c>
       <c r="G391" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H391" s="1">
         <v>2210</v>
@@ -27996,7 +27999,7 @@
       </c>
       <c r="G392" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H392" s="1">
         <v>1184</v>
@@ -28056,7 +28059,7 @@
       </c>
       <c r="G393" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H393">
         <v>105</v>
@@ -28116,7 +28119,7 @@
       </c>
       <c r="G394" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H394">
         <v>150</v>
@@ -28176,7 +28179,7 @@
       </c>
       <c r="G395" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H395" s="1">
         <v>4000</v>
@@ -28416,7 +28419,7 @@
       </c>
       <c r="G399" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H399" s="1">
         <v>24980</v>
@@ -28536,7 +28539,7 @@
       </c>
       <c r="G401" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H401" s="1">
         <v>1675</v>
@@ -28596,7 +28599,7 @@
       </c>
       <c r="G402" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H402" s="1">
         <v>1700</v>
@@ -28656,7 +28659,7 @@
       </c>
       <c r="G403" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H403">
         <v>405</v>
@@ -28716,7 +28719,7 @@
       </c>
       <c r="G404" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H404" s="1">
         <v>3250</v>
@@ -28776,7 +28779,7 @@
       </c>
       <c r="G405" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H405">
         <v>700</v>
@@ -28836,7 +28839,7 @@
       </c>
       <c r="G406" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H406" s="1">
         <v>3016</v>
@@ -28956,7 +28959,7 @@
       </c>
       <c r="G408" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H408">
         <v>684</v>
@@ -29016,7 +29019,7 @@
       </c>
       <c r="G409" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H409" s="1">
         <v>1161</v>
@@ -29076,7 +29079,7 @@
       </c>
       <c r="G410" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H410">
         <v>580</v>
@@ -29136,7 +29139,7 @@
       </c>
       <c r="G411" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H411" s="1">
         <v>4267</v>
@@ -29247,7 +29250,7 @@
       </c>
       <c r="G413" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H413" s="1">
         <v>20871</v>
@@ -29307,7 +29310,7 @@
       </c>
       <c r="G414" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H414" s="1">
         <v>16617</v>
@@ -29367,7 +29370,7 @@
       </c>
       <c r="G415" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H415" s="1">
         <v>12414</v>
@@ -29427,7 +29430,7 @@
       </c>
       <c r="G416" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H416" s="1">
         <v>29628</v>
@@ -29487,7 +29490,7 @@
       </c>
       <c r="G417" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H417">
         <v>652</v>
@@ -29547,7 +29550,7 @@
       </c>
       <c r="G418" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H418" s="1">
         <v>28278</v>
@@ -29607,7 +29610,7 @@
       </c>
       <c r="G419" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H419" s="1">
         <v>63432</v>
@@ -29847,7 +29850,7 @@
       </c>
       <c r="G423" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H423" s="1">
         <v>27992</v>
@@ -29967,7 +29970,7 @@
       </c>
       <c r="G425" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H425" s="1">
         <v>2274</v>
@@ -30027,7 +30030,7 @@
       </c>
       <c r="G426" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H426">
         <v>880</v>
@@ -30087,7 +30090,7 @@
       </c>
       <c r="G427" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H427">
         <v>900</v>
@@ -30147,7 +30150,7 @@
       </c>
       <c r="G428" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H428" s="1">
         <v>4336</v>
@@ -30387,7 +30390,7 @@
       </c>
       <c r="G432" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H432">
         <v>560</v>
@@ -30447,7 +30450,7 @@
       </c>
       <c r="G433" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H433" s="1">
         <v>28108</v>
@@ -30507,7 +30510,7 @@
       </c>
       <c r="G434" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H434" s="1">
         <v>4998</v>
@@ -30567,7 +30570,7 @@
       </c>
       <c r="G435" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H435" s="1">
         <v>327148</v>
@@ -30807,7 +30810,7 @@
       </c>
       <c r="G439" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H439">
         <v>302</v>
@@ -30867,7 +30870,7 @@
       </c>
       <c r="G440" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H440">
         <v>394</v>
@@ -30927,7 +30930,7 @@
       </c>
       <c r="G441" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H441">
         <v>852</v>
@@ -30987,7 +30990,7 @@
       </c>
       <c r="G442" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H442" s="1">
         <v>3500</v>
@@ -31047,7 +31050,7 @@
       </c>
       <c r="G443" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H443" s="1">
         <v>1000</v>
@@ -31107,7 +31110,7 @@
       </c>
       <c r="G444" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H444">
         <v>750</v>
@@ -31167,7 +31170,7 @@
       </c>
       <c r="G445" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H445" s="1">
         <v>1500</v>
@@ -31227,7 +31230,7 @@
       </c>
       <c r="G446" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H446" s="1">
         <v>77788</v>
@@ -31347,7 +31350,7 @@
       </c>
       <c r="G448" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H448" s="1">
         <v>3180</v>
@@ -31407,7 +31410,7 @@
       </c>
       <c r="G449" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H449" s="1">
         <v>1230</v>
@@ -31464,7 +31467,7 @@
       </c>
       <c r="G450" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H450">
         <v>500</v>
@@ -31524,7 +31527,7 @@
       </c>
       <c r="G451" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H451" s="1">
         <v>1644</v>
@@ -31584,7 +31587,7 @@
       </c>
       <c r="G452" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H452" s="1">
         <v>1741</v>
@@ -31644,7 +31647,7 @@
       </c>
       <c r="G453" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H453" s="1">
         <v>1075</v>
@@ -31704,7 +31707,7 @@
       </c>
       <c r="G454" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H454" s="1">
         <v>22752</v>
@@ -31764,7 +31767,7 @@
       </c>
       <c r="G455" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Adults</v>
       </c>
       <c r="H455" s="1">
         <v>35587</v>
@@ -31824,7 +31827,7 @@
       </c>
       <c r="G456" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H456" s="1">
         <v>12609</v>
@@ -31884,7 +31887,7 @@
       </c>
       <c r="G457" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H457" s="1">
         <v>2976</v>
@@ -31944,7 +31947,7 @@
       </c>
       <c r="G458" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H458">
         <v>671</v>
@@ -32004,7 +32007,7 @@
       </c>
       <c r="G459" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H459" s="1">
         <v>1205</v>
@@ -32064,7 +32067,7 @@
       </c>
       <c r="G460" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H460" s="1">
         <v>7470</v>
@@ -32124,7 +32127,7 @@
       </c>
       <c r="G461" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H461" s="1">
         <v>1982</v>
@@ -32184,7 +32187,7 @@
       </c>
       <c r="G462" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H462" s="1">
         <v>1243</v>
@@ -32304,7 +32307,7 @@
       </c>
       <c r="G464" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H464" s="1">
         <v>1073</v>
@@ -32364,7 +32367,7 @@
       </c>
       <c r="G465" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Adults</v>
       </c>
       <c r="H465" s="1">
         <v>10764</v>
@@ -32424,7 +32427,7 @@
       </c>
       <c r="G466" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H466" s="1">
         <v>23500</v>
@@ -32484,7 +32487,7 @@
       </c>
       <c r="G467" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H467" s="1">
         <v>7015</v>
@@ -32544,7 +32547,7 @@
       </c>
       <c r="G468" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H468" s="1">
         <v>1342</v>
@@ -32664,7 +32667,7 @@
       </c>
       <c r="G470" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H470" s="1">
         <v>1610</v>
@@ -32724,7 +32727,7 @@
       </c>
       <c r="G471" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H471" s="1">
         <v>111092</v>
@@ -32961,7 +32964,7 @@
       </c>
       <c r="G475" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>General</v>
       </c>
       <c r="H475" s="1">
         <v>10276</v>
@@ -33021,7 +33024,7 @@
       </c>
       <c r="G476" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H476" s="1">
         <v>36813</v>
@@ -33201,7 +33204,7 @@
       </c>
       <c r="G479" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H479" s="1">
         <v>1700</v>
@@ -33261,7 +33264,7 @@
       </c>
       <c r="G480" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H480">
         <v>365</v>
@@ -33321,7 +33324,7 @@
       </c>
       <c r="G481" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H481">
         <v>372</v>
@@ -33441,7 +33444,7 @@
       </c>
       <c r="G483" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H483">
         <v>852</v>
@@ -33501,7 +33504,7 @@
       </c>
       <c r="G484" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="I484" t="s">
         <v>13</v>
@@ -33549,7 +33552,7 @@
       </c>
       <c r="G485" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H485" s="1">
         <v>33480</v>
@@ -33609,7 +33612,7 @@
       </c>
       <c r="G486" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H486" s="1">
         <v>1723</v>
@@ -33729,7 +33732,7 @@
       </c>
       <c r="G488" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H488" s="1">
         <v>2142</v>
@@ -33849,7 +33852,7 @@
       </c>
       <c r="G490" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H490" s="1">
         <v>2520</v>
@@ -33909,7 +33912,7 @@
       </c>
       <c r="G491" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H491" s="1">
         <v>1120</v>
@@ -33969,7 +33972,7 @@
       </c>
       <c r="G492" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H492" s="1">
         <v>6616</v>
@@ -34029,7 +34032,7 @@
       </c>
       <c r="G493" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H493">
         <v>600</v>
@@ -34086,7 +34089,7 @@
       </c>
       <c r="G494" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H494" s="1">
         <v>1200</v>
@@ -34143,7 +34146,7 @@
       </c>
       <c r="G495" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>General</v>
+        <v>Seniors</v>
       </c>
       <c r="H495">
         <v>600</v>
@@ -34200,7 +34203,7 @@
       </c>
       <c r="G496" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H496" s="1">
         <v>2495</v>
@@ -34260,7 +34263,7 @@
       </c>
       <c r="G497" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H497">
         <v>667</v>
@@ -34320,7 +34323,7 @@
       </c>
       <c r="G498" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</f>
-        <v>Children, Adults, Seniors</v>
+        <v>Children</v>
       </c>
       <c r="H498">
         <v>366</v>
@@ -34981,6 +34984,11 @@
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
@@ -34993,11 +35001,6 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35007,13 +35010,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758E5A1E-6C6A-AF4E-B6D0-4C86581B2668}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -35046,7 +35051,7 @@
         <v>1329</v>
       </c>
       <c r="C3" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -35057,7 +35062,7 @@
         <v>1329</v>
       </c>
       <c r="C4" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -35068,7 +35073,7 @@
         <v>1329</v>
       </c>
       <c r="C5" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -35079,7 +35084,7 @@
         <v>1329</v>
       </c>
       <c r="C6" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -35101,7 +35106,7 @@
         <v>1329</v>
       </c>
       <c r="C8" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -35112,7 +35117,7 @@
         <v>1329</v>
       </c>
       <c r="C9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -35134,7 +35139,7 @@
         <v>1329</v>
       </c>
       <c r="C11" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -35164,10 +35169,10 @@
         <v>230</v>
       </c>
       <c r="B14" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C14" t="s">
         <v>1333</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -35175,10 +35180,10 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C15" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -35186,10 +35191,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C16" t="s">
         <v>1333</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -35197,7 +35202,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C17" t="s">
         <v>1330</v>
@@ -35208,10 +35213,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C18" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
